--- a/curva_juros.xlsx
+++ b/curva_juros.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DI1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DAP" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ativo</t>
+          <t>DI1Ativo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,275 +457,441 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45810</v>
+        <v>45839</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M25</t>
+          <t>N25</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.65</v>
+        <v>14.696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N25</t>
+          <t>Q25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.694</v>
+        <v>14.744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q25</t>
+          <t>U25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.732</v>
+        <v>14.773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>U25</t>
+          <t>V25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.759</v>
+        <v>14.794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V25</t>
+          <t>X25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.771</v>
+        <v>14.802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45964</v>
+        <v>46023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X25</t>
+          <t>F26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.783</v>
+        <v>14.807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46024</v>
+        <v>46113</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F26</t>
+          <t>J26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.795</v>
+        <v>14.807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46113</v>
+        <v>46204</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J26</t>
+          <t>N26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.736</v>
+        <v>14.607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46204</v>
+        <v>46296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N26</t>
+          <t>V26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.57</v>
+        <v>14.389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46296</v>
+        <v>46388</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V26</t>
+          <t>F27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.342</v>
+        <v>14.187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46391</v>
+        <v>46478</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F27</t>
+          <t>J27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.134</v>
+        <v>14.036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46478</v>
+        <v>46569</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>J27</t>
+          <t>N27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.986</v>
+        <v>13.888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46569</v>
+        <v>46753</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N27</t>
+          <t>F28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.837</v>
+        <v>13.683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46756</v>
+        <v>47119</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F28</t>
+          <t>F29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13.623</v>
+        <v>13.653</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>47122</v>
+        <v>47484</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>F29</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13.59</v>
+        <v>13.723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>47487</v>
+        <v>47849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.666</v>
+        <v>13.783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>47852</v>
+        <v>48214</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13.731</v>
+        <v>13.825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>48217</v>
+        <v>48580</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13.784</v>
+        <v>13.825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>48583</v>
+        <v>48945</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13.786</v>
+        <v>13.792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>48948</v>
+        <v>49310</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13.765</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>49313</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>F35</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>13.776</v>
+        <v>13.801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DAPAtivo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N25</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46235</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9.414999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46508</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>K27</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8.425000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46966</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7.815</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>47239</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>K29</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>47696</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>48427</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7.405</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>48700</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>K33</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7.355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>49430</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>K35</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>51349</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>55001</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Q50</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7.079</v>
       </c>
     </row>
   </sheetData>
